--- a/data.xlsx
+++ b/data.xlsx
@@ -1,36 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gray\Projects\.Code\.IOEL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5E9E8-7DFE-4ADF-8ED2-9A0852BB8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>min temp</t>
+  </si>
+  <si>
+    <t>max temp</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>rainfall</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,81 +82,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,564 +399,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Sr</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>min temp</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max temp</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>humidity</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>rainfall</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Sr</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>min temp</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>max temp</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>humidity</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>rainfall</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>21</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2">
         <v>30</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2">
         <v>27</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="1">
         <v>21</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="1">
         <v>29</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="1">
         <v>33</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>19</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
         <v>28</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2">
         <v>32</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1">
         <v>25</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1">
         <v>27</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1">
         <v>39</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2">
         <v>20</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2">
         <v>24</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>44</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1">
         <v>20</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1">
         <v>26</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1">
         <v>42</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>19</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>41</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>19</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" s="1">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
         <v>22</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="1">
         <v>60</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>47</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
-        <v>19</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" s="1">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1">
         <v>22</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="1">
         <v>57</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2">
         <v>56</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="1">
         <v>17</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="1">
         <v>21</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="1">
         <v>60</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>60</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="1">
         <v>18</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="1">
         <v>21</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="1">
         <v>56</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2">
         <v>60</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
-        <v>19</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" s="2">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
         <v>68</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2">
         <v>17</v>
       </c>
-      <c r="C11" t="n">
-        <v>19</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" s="2">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
         <v>68</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2">
         <v>16</v>
       </c>
-      <c r="C12" t="n">
-        <v>19</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" s="2">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
         <v>68</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2">
         <v>17</v>
       </c>
-      <c r="C13" t="n">
-        <v>19</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" s="2">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
         <v>64</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14" s="2">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
         <v>60</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2">
         <v>16</v>
       </c>
-      <c r="C15" t="n">
-        <v>19</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" s="2">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
         <v>60</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>28.8</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>28.8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>52</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>28.7</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>28.8</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>52</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D18">
         <v>62</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="B19">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C19">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D19">
         <v>62</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C20">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D20">
         <v>62</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C21">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D21">
         <v>63</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="B22">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C22">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D22">
         <v>71</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="B23">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C23">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D23">
         <v>67</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C24">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D24">
         <v>65</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
